--- a/test/official_test_case_2.xlsx
+++ b/test/official_test_case_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intern\WEHI\prod\forecasting-with-workday-project\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limnaroline/forecasting-project/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F138AA-E5F2-4973-B220-321CD1A35AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7599FA0E-2149-414D-9BC7-8211355CEEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="2500" windowWidth="17280" windowHeight="9960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funding" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Planned Amount</t>
   </si>
   <si>
-    <t>Latest Payment Date</t>
-  </si>
-  <si>
     <t>Salary</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
   </si>
 </sst>
 </file>
@@ -468,9 +468,9 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,12 +490,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>45658</v>
@@ -507,12 +507,12 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>45658</v>
@@ -524,12 +524,12 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>45658</v>
@@ -541,12 +541,12 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>45658</v>
@@ -558,12 +558,12 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>45658</v>
@@ -575,12 +575,12 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>45658</v>
@@ -592,12 +592,12 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>45658</v>
@@ -609,12 +609,12 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>45658</v>
@@ -626,12 +626,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1">
         <v>45658</v>
@@ -643,12 +643,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>45658</v>
@@ -660,12 +660,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>45658</v>
@@ -677,12 +677,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>45658</v>
@@ -694,12 +694,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>45658</v>
@@ -711,12 +711,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1">
         <v>45839</v>
@@ -728,12 +728,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
         <v>45839</v>
@@ -756,12 +756,12 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -775,18 +775,18 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>8000</v>
@@ -795,12 +795,12 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
         <v>7000</v>
@@ -809,12 +809,12 @@
         <v>45757</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>6000</v>
@@ -823,12 +823,12 @@
         <v>45818</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>10000</v>
@@ -837,12 +837,12 @@
         <v>45731</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
         <v>12000</v>
@@ -851,12 +851,12 @@
         <v>45797</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>9000</v>
@@ -865,12 +865,12 @@
         <v>45853</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
         <v>10000</v>
@@ -879,12 +879,12 @@
         <v>45889</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2">
         <v>8000</v>
@@ -893,12 +893,12 @@
         <v>45940</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
         <v>7000</v>
@@ -907,12 +907,12 @@
         <v>45976</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2">
         <v>5000</v>
